--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/betrouwbaarheid/betrouwbaarheid.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/betrouwbaarheid/betrouwbaarheid.xlsx
@@ -448,7 +448,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.collection.betrouwbaarheid.betrouwbaarheid</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
       </c>
       <c r="E2" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/betrouwbaarheid/A|https://data.bodemenondergrond.vlaanderen.be/id/concept/betrouwbaarheid/B|https://data.bodemenondergrond.vlaanderen.be/id/concept/betrouwbaarheid/C</v>
@@ -483,7 +483,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.betrouwbaarheid.A</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
       </c>
       <c r="E3" t="str">
         <v>null</v>
@@ -495,7 +495,7 @@
         <v>A</v>
       </c>
       <c r="H3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
       </c>
       <c r="I3" t="str">
         <v>null</v>
@@ -518,7 +518,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.betrouwbaarheid.B</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
       </c>
       <c r="E4" t="str">
         <v>null</v>
@@ -530,7 +530,7 @@
         <v>B</v>
       </c>
       <c r="H4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
       </c>
       <c r="I4" t="str">
         <v>null</v>
@@ -553,7 +553,7 @@
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.betrouwbaarheid.C</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
       </c>
       <c r="E5" t="str">
         <v>null</v>
@@ -565,7 +565,7 @@
         <v>C</v>
       </c>
       <c r="H5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
       </c>
       <c r="I5" t="str">
         <v>null</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/betrouwbaarheid</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -594,7 +594,7 @@
         <v>null</v>
       </c>
       <c r="F6" t="str">
-        <v>Codelijst betrouwbaarheid.</v>
+        <v>Conceptschema betrouwbaarheid.</v>
       </c>
       <c r="G6" t="str">
         <v>null</v>
